--- a/Dat/BaseDeDatosDeAlimentos.xlsx
+++ b/Dat/BaseDeDatosDeAlimentos.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B16E87-A618-4B9E-88B2-02DA5E370BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimentos" sheetId="1" r:id="rId1"/>
     <sheet name="Patologias" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -149,16 +155,16 @@
     <t>sin patologia</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>colesterol</t>
   </si>
   <si>
+    <t>baja en grasa</t>
+  </si>
+  <si>
     <t>Problemas de Higado</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>baja en grasa</t>
   </si>
   <si>
     <t>baja en proteina</t>
@@ -167,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,10 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,6 +234,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -571,13 +584,13 @@
         <v>547</v>
       </c>
       <c r="C2">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D2">
         <v>9.4</v>
       </c>
       <c r="E2">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -601,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -639,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -659,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -677,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -697,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H5">
         <v>15.8</v>
@@ -715,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -753,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -773,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H7">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I7">
         <v>0.7</v>
@@ -791,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -829,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -867,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -890,7 +903,7 @@
         <v>20.6</v>
       </c>
       <c r="H10">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="I10">
         <v>0.7</v>
@@ -905,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -925,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H11">
         <v>15.6</v>
@@ -943,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -951,7 +964,7 @@
         <v>353</v>
       </c>
       <c r="C12">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D12">
         <v>3.6</v>
@@ -981,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>255</v>
       </c>
       <c r="C14">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D14">
         <v>3.3</v>
@@ -1057,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1068,10 +1081,10 @@
         <v>17.2</v>
       </c>
       <c r="D15">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E15">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1095,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1119,7 @@
         <v>19.2</v>
       </c>
       <c r="D16">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E16">
         <v>1.6</v>
@@ -1133,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="H17">
         <v>46.44</v>
@@ -1171,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>844</v>
       </c>
       <c r="C18">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D18">
         <v>16.48</v>
@@ -1194,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I18">
         <v>0.7</v>
@@ -1209,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1255,22 +1268,22 @@
         <v>821.2</v>
       </c>
       <c r="C20">
-        <v>31.066</v>
+        <v>31.065999999999999</v>
       </c>
       <c r="D20">
-        <v>4.772</v>
+        <v>4.7720000000000002</v>
       </c>
       <c r="E20">
-        <v>82.419</v>
+        <v>82.418999999999997</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.085000000000001</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="H20">
-        <v>51.27399999999999</v>
+        <v>51.273999999999987</v>
       </c>
       <c r="I20">
         <v>0.7</v>
@@ -1285,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1293,10 +1306,10 @@
         <v>781.5</v>
       </c>
       <c r="C21">
-        <v>5.799999999999999</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="D21">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="E21">
         <v>136.35</v>
@@ -1323,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>1.54</v>
       </c>
       <c r="D24">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E24">
         <v>48</v>
@@ -1419,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I24">
         <v>0.7</v>
@@ -1434,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="C25">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D25">
         <v>6.8</v>
@@ -1472,27 +1485,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
-        <v>153.36</v>
+        <v>153.36000000000001</v>
       </c>
       <c r="C26">
         <v>5.96</v>
       </c>
       <c r="D26">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="E26">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H26">
         <v>1.64</v>
@@ -1510,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1524,13 +1537,13 @@
         <v>2.5</v>
       </c>
       <c r="E27">
-        <v>20.24</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H27">
         <v>3.28</v>
@@ -1548,15 +1561,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
-        <v>1092.84</v>
+        <v>1092.8399999999999</v>
       </c>
       <c r="C28">
-        <v>32.08199999999999</v>
+        <v>32.081999999999987</v>
       </c>
       <c r="D28">
         <v>12.147</v>
@@ -1568,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.129</v>
+        <v>51.128999999999998</v>
       </c>
       <c r="H28">
-        <v>43.664</v>
+        <v>43.664000000000001</v>
       </c>
       <c r="I28">
         <v>0.7</v>
@@ -1586,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1625,19 +1638,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1656,32 +1669,32 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Dat/BaseDeDatosDeAlimentos.xlsx
+++ b/Dat/BaseDeDatosDeAlimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B16E87-A618-4B9E-88B2-02DA5E370BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C395A-4614-4C57-967D-082407F8E689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimentos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Nombre</t>
   </si>
@@ -158,16 +158,28 @@
     <t>normal</t>
   </si>
   <si>
-    <t>colesterol</t>
-  </si>
-  <si>
     <t>baja en grasa</t>
   </si>
   <si>
-    <t>Problemas de Higado</t>
-  </si>
-  <si>
     <t>baja en proteina</t>
+  </si>
+  <si>
+    <t>Colesterol</t>
+  </si>
+  <si>
+    <t>Insuficiencia Renal</t>
+  </si>
+  <si>
+    <t>Pacientes en dialisis</t>
+  </si>
+  <si>
+    <t>alta en proteina</t>
+  </si>
+  <si>
+    <t>alta en grasa</t>
+  </si>
+  <si>
+    <t>fibrosis quistica</t>
   </si>
 </sst>
 </file>
@@ -532,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -1644,11 +1656,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1677,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,10 +1706,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Dat/BaseDeDatosDeAlimentos.xlsx
+++ b/Dat/BaseDeDatosDeAlimentos.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C395A-4614-4C57-967D-082407F8E689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Alimentos" sheetId="1" r:id="rId1"/>
     <sheet name="Patologias" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -155,6 +149,18 @@
     <t>sin patologia</t>
   </si>
   <si>
+    <t>Colesterol</t>
+  </si>
+  <si>
+    <t>Insuficiencia Renal</t>
+  </si>
+  <si>
+    <t>Pacientes en dialisis</t>
+  </si>
+  <si>
+    <t>fibrosis quistica</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
@@ -164,29 +170,17 @@
     <t>baja en proteina</t>
   </si>
   <si>
-    <t>Colesterol</t>
-  </si>
-  <si>
-    <t>Insuficiencia Renal</t>
-  </si>
-  <si>
-    <t>Pacientes en dialisis</t>
-  </si>
-  <si>
     <t>alta en proteina</t>
   </si>
   <si>
     <t>alta en grasa</t>
-  </si>
-  <si>
-    <t>fibrosis quistica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +191,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,14 +243,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -541,16 +530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -596,13 +583,13 @@
         <v>547</v>
       </c>
       <c r="C2">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="D2">
         <v>9.4</v>
       </c>
       <c r="E2">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -626,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -664,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -684,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -702,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -722,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H5">
         <v>15.8</v>
@@ -740,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -772,13 +759,13 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -798,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="H7">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="I7">
         <v>0.7</v>
@@ -816,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -854,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -892,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -915,7 +902,7 @@
         <v>20.6</v>
       </c>
       <c r="H10">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I10">
         <v>0.7</v>
@@ -930,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -950,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="H11">
         <v>15.6</v>
@@ -962,13 +949,13 @@
         <v>16</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -976,7 +963,7 @@
         <v>353</v>
       </c>
       <c r="C12">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D12">
         <v>3.6</v>
@@ -1006,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1038,13 +1025,13 @@
         <v>16</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1039,7 @@
         <v>255</v>
       </c>
       <c r="C14">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D14">
         <v>3.3</v>
@@ -1082,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1093,10 +1080,10 @@
         <v>17.2</v>
       </c>
       <c r="D15">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E15">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1114,13 +1101,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>19.2</v>
       </c>
       <c r="D16">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E16">
         <v>1.6</v>
@@ -1152,13 +1139,13 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H17">
         <v>46.44</v>
@@ -1196,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1191,7 @@
         <v>844</v>
       </c>
       <c r="C18">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="D18">
         <v>16.48</v>
@@ -1219,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="I18">
         <v>0.7</v>
@@ -1234,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1280,22 +1267,22 @@
         <v>821.2</v>
       </c>
       <c r="C20">
-        <v>31.065999999999999</v>
+        <v>31.066</v>
       </c>
       <c r="D20">
-        <v>4.7720000000000002</v>
+        <v>4.772</v>
       </c>
       <c r="E20">
-        <v>82.418999999999997</v>
+        <v>82.419</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.0850000000000009</v>
+        <v>8.085000000000001</v>
       </c>
       <c r="H20">
-        <v>51.273999999999987</v>
+        <v>51.27399999999999</v>
       </c>
       <c r="I20">
         <v>0.7</v>
@@ -1310,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1318,10 +1305,10 @@
         <v>781.5</v>
       </c>
       <c r="C21">
-        <v>5.7999999999999989</v>
+        <v>5.799999999999999</v>
       </c>
       <c r="D21">
-        <v>1.4650000000000001</v>
+        <v>1.465</v>
       </c>
       <c r="E21">
         <v>136.35</v>
@@ -1348,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1380,13 +1367,13 @@
         <v>26</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1415,13 +1402,13 @@
         <v>26</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +1419,7 @@
         <v>1.54</v>
       </c>
       <c r="D24">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="E24">
         <v>48</v>
@@ -1444,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I24">
         <v>0.7</v>
@@ -1453,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1454,7 @@
         <v>139</v>
       </c>
       <c r="C25">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D25">
         <v>6.8</v>
@@ -1491,33 +1478,33 @@
         <v>26</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
-        <v>153.36000000000001</v>
+        <v>153.36</v>
       </c>
       <c r="C26">
         <v>5.96</v>
       </c>
       <c r="D26">
-        <v>1.8640000000000001</v>
+        <v>1.864</v>
       </c>
       <c r="E26">
-        <v>10.119999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H26">
         <v>1.64</v>
@@ -1535,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1549,13 +1536,13 @@
         <v>2.5</v>
       </c>
       <c r="E27">
-        <v>20.239999999999998</v>
+        <v>20.24</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="H27">
         <v>3.28</v>
@@ -1573,15 +1560,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
-        <v>1092.8399999999999</v>
+        <v>1092.84</v>
       </c>
       <c r="C28">
-        <v>32.081999999999987</v>
+        <v>32.08199999999999</v>
       </c>
       <c r="D28">
         <v>12.147</v>
@@ -1593,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.128999999999998</v>
+        <v>51.129</v>
       </c>
       <c r="H28">
-        <v>43.664000000000001</v>
+        <v>43.664</v>
       </c>
       <c r="I28">
         <v>0.7</v>
@@ -1611,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1643,32 +1630,26 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1687,54 +1668,54 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dat/BaseDeDatosDeAlimentos.xlsx
+++ b/Dat/BaseDeDatosDeAlimentos.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDDEF46-3216-46C8-B5BE-FCC38EF0400A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimentos" sheetId="1" r:id="rId1"/>
     <sheet name="Patologias" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -179,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,11 +249,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +335,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,6 +387,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,14 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -583,13 +633,13 @@
         <v>547</v>
       </c>
       <c r="C2">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D2">
         <v>9.4</v>
       </c>
       <c r="E2">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -613,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -651,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -671,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -689,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -709,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H5">
         <v>15.8</v>
@@ -727,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -765,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -785,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H7">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I7">
         <v>0.7</v>
@@ -803,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -841,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -879,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -902,7 +952,7 @@
         <v>20.6</v>
       </c>
       <c r="H10">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="I10">
         <v>0.7</v>
@@ -917,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -937,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H11">
         <v>15.6</v>
@@ -955,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -963,7 +1013,7 @@
         <v>353</v>
       </c>
       <c r="C12">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D12">
         <v>3.6</v>
@@ -993,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1089,7 @@
         <v>255</v>
       </c>
       <c r="C14">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D14">
         <v>3.3</v>
@@ -1069,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1080,10 +1130,10 @@
         <v>17.2</v>
       </c>
       <c r="D15">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E15">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1107,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>19.2</v>
       </c>
       <c r="D16">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E16">
         <v>1.6</v>
@@ -1145,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="H17">
         <v>46.44</v>
@@ -1183,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1241,7 @@
         <v>844</v>
       </c>
       <c r="C18">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D18">
         <v>16.48</v>
@@ -1206,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I18">
         <v>0.7</v>
@@ -1221,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1267,22 +1317,22 @@
         <v>821.2</v>
       </c>
       <c r="C20">
-        <v>31.066</v>
+        <v>31.065999999999999</v>
       </c>
       <c r="D20">
-        <v>4.772</v>
+        <v>4.7720000000000002</v>
       </c>
       <c r="E20">
-        <v>82.419</v>
+        <v>82.418999999999997</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.085000000000001</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="H20">
-        <v>51.27399999999999</v>
+        <v>51.273999999999987</v>
       </c>
       <c r="I20">
         <v>0.7</v>
@@ -1297,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1305,10 +1355,10 @@
         <v>781.5</v>
       </c>
       <c r="C21">
-        <v>5.799999999999999</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="D21">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="E21">
         <v>136.35</v>
@@ -1335,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1408,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1419,7 +1469,7 @@
         <v>1.54</v>
       </c>
       <c r="D24">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E24">
         <v>48</v>
@@ -1431,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I24">
         <v>0.7</v>
@@ -1446,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1504,7 @@
         <v>139</v>
       </c>
       <c r="C25">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D25">
         <v>6.8</v>
@@ -1484,27 +1534,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
-        <v>153.36</v>
+        <v>153.36000000000001</v>
       </c>
       <c r="C26">
         <v>5.96</v>
       </c>
       <c r="D26">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="E26">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H26">
         <v>1.64</v>
@@ -1522,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1536,13 +1586,13 @@
         <v>2.5</v>
       </c>
       <c r="E27">
-        <v>20.24</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H27">
         <v>3.28</v>
@@ -1560,15 +1610,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
-        <v>1092.84</v>
+        <v>1092.8399999999999</v>
       </c>
       <c r="C28">
-        <v>32.08199999999999</v>
+        <v>32.081999999999987</v>
       </c>
       <c r="D28">
         <v>12.147</v>
@@ -1580,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.129</v>
+        <v>51.128999999999998</v>
       </c>
       <c r="H28">
-        <v>43.664</v>
+        <v>43.664000000000001</v>
       </c>
       <c r="I28">
         <v>0.7</v>
@@ -1598,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1642,14 +1692,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1671,7 +1725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1682,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1693,7 +1747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1704,7 +1758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
